--- a/biology/Biochimie/BCL2L11/BCL2L11.xlsx
+++ b/biology/Biochimie/BCL2L11/BCL2L11.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Bcl-2-like protein 11, communément appelée BIM, est une protéine qui, chez l'homme, est codée par le gène BCL2L11[5],[6].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bcl-2-like protein 11, communément appelée BIM, est une protéine qui, chez l'homme, est codée par le gène BCL2L11,.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Fonction</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La protéine codée par ce gène appartient à la famille des protéines  BCL-2. Les membres de la famille BCL-2 forment des hétérodimères ou des homodimères et agissent comme des régulateurs anti ou pro-apoptotiques participant à une vaste gamme d'activités cellulaires. La protéine codée par ce gène contient un domaine homologique Bcl-2 3 (BH3). Il a été démontré qu'il interagit avec d'autres membres de la famille de protéines BCL-2, y compris BCL2, BCL2L1/BCL-X(L), et MCL1, et qu'il agit comme activateur apoptotique. L'expression de ce gène peut être induite par un facteur de croissance nerveuse (NGF)[7].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La protéine codée par ce gène appartient à la famille des protéines  BCL-2. Les membres de la famille BCL-2 forment des hétérodimères ou des homodimères et agissent comme des régulateurs anti ou pro-apoptotiques participant à une vaste gamme d'activités cellulaires. La protéine codée par ce gène contient un domaine homologique Bcl-2 3 (BH3). Il a été démontré qu'il interagit avec d'autres membres de la famille de protéines BCL-2, y compris BCL2, BCL2L1/BCL-X(L), et MCL1, et qu'il agit comme activateur apoptotique. L'expression de ce gène peut être induite par un facteur de croissance nerveuse (NGF).
 </t>
         </is>
       </c>
